--- a/Stock BI Report by Imam Hossain With Source/Code, Code Flow, Function with Notes, Learning Source (Stock BI by IM from Source).xlsx
+++ b/Stock BI Report by Imam Hossain With Source/Code, Code Flow, Function with Notes, Learning Source (Stock BI by IM from Source).xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Imam Hossain\IDoc\Power BI by IM\Stock BI Report by Imam Hossain With Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF5AFEB-BEDD-404F-946E-A4A583DF594D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D909140-B38B-4BF5-9552-CF5BBBBF19D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BA506BA8-62E4-42EB-93AD-9835F75A9973}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BA506BA8-62E4-42EB-93AD-9835F75A9973}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar Date" sheetId="1" r:id="rId1"/>
     <sheet name="Last Refresh Date &amp; Time" sheetId="2" r:id="rId2"/>
+    <sheet name="1. Stock Ageing" sheetId="3" r:id="rId3"/>
+    <sheet name="Datediff()" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>https://debug.to/899/calendarauto-function-can-not-find-a-base-column-of-datetime-type-in-the-model</t>
   </si>
@@ -885,13 +887,1232 @@
   </si>
   <si>
     <t>= #table(type table[Date Last Refreshed=datetime], {{DateTime.LocalNow()}})</t>
+  </si>
+  <si>
+    <r>
+      <t>Category Def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SWITCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[CATEGORY]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"YN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Yarn (KG)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[CATEGORY]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"DC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Dyes &amp; Chemical"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[CATEGORY]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"EXP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Fabric"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[CATEGORY]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Fuel &amp; Lubricant"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 60 D = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CALCULATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Stock_View[QTY]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Stock_View[AGING Days]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"0-60 Days (yds)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AGING Days = </t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SWITCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Stock_View[Duration]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Stock_View[Duration]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"0-60 Days (yds)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Stock_View[Duration]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Stock_View[Duration]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Over 60 Days (yds)"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Duration = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Datediff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Stock_View[STOCKDATE]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">60 Over D = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CALCULATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Stock_View[QTY]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Stock_View[AGING Days]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Over 60 Days (yds)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fabric = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SWITCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[LOCATION]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FABEXP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"         ELITE (AGAINST ORDER)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[LOCATION]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FABGRB"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"       B GRADE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[LOCATION]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FABEL1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"    ELITE 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[LOCATION]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FABINS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"     INSTA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[LOCATION]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FABGAR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"  GARA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[LOCATION]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FABLOV"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"      LEFT OVER"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[LOCATION]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FABDAM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"   DAMAGE_SAMPLE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[LOCATION]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FABSTP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>" STOP MARK"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[LOCATION]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FABSAM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"        R&amp;D SAMPLE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[LOCATION]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FABWHS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"        R&amp;D SAMPLE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock_View[LOCATION]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FABDHK"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"      LEFT OVER"</t>
+    </r>
+  </si>
+  <si>
+    <t>Power BI Date Function DateDiff - How to find the days or months or year between two dates</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mx61QIe40nw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,8 +2164,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF098658"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,8 +2184,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1052,11 +2285,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1066,7 +2367,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1085,6 +2385,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1190,6 +2525,55 @@
         <a:xfrm>
           <a:off x="609600" y="1562100"/>
           <a:ext cx="11619047" cy="6390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>455771</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>27595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE370DB-F8E5-2EBA-D111-EBF370F2DF64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="11428571" cy="7838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1530,232 +2914,130 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:13" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="2:13" s="12" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
+      <c r="I32" s="5"/>
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="6"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="9"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1767,14 +3049,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4226C-7EF8-493E-A17B-893528C5BC34}">
   <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:2" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1786,6 +3068,283 @@
     <row r="7" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCEA66B-EE88-40D3-8C3B-2968A700D0A6}">
+  <dimension ref="A2:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="25"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E16757-E28E-46BA-8586-E21E10B9F277}">
+  <dimension ref="B1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Stock BI Report by Imam Hossain With Source/Code, Code Flow, Function with Notes, Learning Source (Stock BI by IM from Source).xlsx
+++ b/Stock BI Report by Imam Hossain With Source/Code, Code Flow, Function with Notes, Learning Source (Stock BI by IM from Source).xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Imam Hossain\IDoc\Power BI by IM\Stock BI Report by Imam Hossain With Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D909140-B38B-4BF5-9552-CF5BBBBF19D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DFC2EF-E0AD-41C5-AE1B-69E00B08F9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BA506BA8-62E4-42EB-93AD-9835F75A9973}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BA506BA8-62E4-42EB-93AD-9835F75A9973}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar Date" sheetId="1" r:id="rId1"/>
     <sheet name="Last Refresh Date &amp; Time" sheetId="2" r:id="rId2"/>
     <sheet name="1. Stock Ageing" sheetId="3" r:id="rId3"/>
     <sheet name="Datediff()" sheetId="4" r:id="rId4"/>
+    <sheet name="Calculate()" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>https://debug.to/899/calendarauto-function-can-not-find-a-base-column-of-datetime-type-in-the-model</t>
   </si>
@@ -2106,6 +2107,21 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Mx61QIe40nw</t>
+  </si>
+  <si>
+    <t>What is a datediff() function?</t>
+  </si>
+  <si>
+    <t>Remarks. You can use the DateDiff function to determine how many specified time intervals exist between two dates. For example, you might use DateDiff to calculate the number of days between two dates, or the number of weeks between today and the end of the year.</t>
+  </si>
+  <si>
+    <t>What is the CALCULATE function in Power BI?</t>
+  </si>
+  <si>
+    <t>The CALCULATE function evaluates the sum of the Sales table Sales Amount column in a modified filter context. A new filter is added to the Product table Color column—or, the filter overwrites any filter that's already applied to the column.</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/tutorial/power-bi-calculate-tutorial</t>
   </si>
 </sst>
 </file>
@@ -2114,14 +2130,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2169,6 +2177,14 @@
       <color rgb="FF098658"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2354,17 +2370,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2386,43 +2402,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2542,14 +2559,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>455771</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>27595</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>56170</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2572,7 +2589,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="571500"/>
+          <a:off x="609600" y="1362075"/>
           <a:ext cx="11428571" cy="7838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2885,13 +2902,13 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2899,12 +2916,12 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2914,134 +2931,137 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:13" s="12" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="2:13" s="11" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="M32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="M32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{EF7F0C34-FB88-4E38-A642-C824314D86E8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3055,8 +3075,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:2" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3065,8 +3085,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3091,236 +3111,207 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="21"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="21"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="5"/>
+      <c r="B20" s="23"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3329,26 +3320,66 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E16757-E28E-46BA-8586-E21E10B9F277}">
-  <dimension ref="B1:B2"/>
+  <dimension ref="B1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4944380F-9D84-47EE-BCF8-56EB84A34E31}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Stock BI Report by Imam Hossain With Source/Code, Code Flow, Function with Notes, Learning Source (Stock BI by IM from Source).xlsx
+++ b/Stock BI Report by Imam Hossain With Source/Code, Code Flow, Function with Notes, Learning Source (Stock BI by IM from Source).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Imam Hossain\IDoc\Power BI by IM\Stock BI Report by Imam Hossain With Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DFC2EF-E0AD-41C5-AE1B-69E00B08F9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B93BD37-57D2-40E9-8D24-D5780D064BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BA506BA8-62E4-42EB-93AD-9835F75A9973}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BA506BA8-62E4-42EB-93AD-9835F75A9973}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar Date" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="1. Stock Ageing" sheetId="3" r:id="rId3"/>
     <sheet name="Datediff()" sheetId="4" r:id="rId4"/>
     <sheet name="Calculate()" sheetId="5" r:id="rId5"/>
+    <sheet name="Relation of BI DAX" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>https://debug.to/899/calendarauto-function-can-not-find-a-base-column-of-datetime-type-in-the-model</t>
   </si>
@@ -2122,6 +2123,12 @@
   </si>
   <si>
     <t>https://www.datacamp.com/tutorial/power-bi-calculate-tutorial</t>
+  </si>
+  <si>
+    <t>Create and manage relationships in Power BI Desktop</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/power-bi/transform-model/desktop-create-and-manage-relationships</t>
   </si>
 </sst>
 </file>
@@ -2602,6 +2609,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>607314</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>84588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4ACD36-0526-1A9E-309B-826A05DF9D37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="704850"/>
+          <a:ext cx="18285714" cy="9095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3358,7 +3414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4944380F-9D84-47EE-BCF8-56EB84A34E31}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -3382,4 +3438,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33DE77A-D502-468D-8D63-A6D26CB3AF1A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Stock BI Report by Imam Hossain With Source/Code, Code Flow, Function with Notes, Learning Source (Stock BI by IM from Source).xlsx
+++ b/Stock BI Report by Imam Hossain With Source/Code, Code Flow, Function with Notes, Learning Source (Stock BI by IM from Source).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Imam Hossain\IDoc\Power BI by IM\Stock BI Report by Imam Hossain With Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B93BD37-57D2-40E9-8D24-D5780D064BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D05733B-6AFE-4384-8395-588348257377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BA506BA8-62E4-42EB-93AD-9835F75A9973}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="6" xr2:uid="{BA506BA8-62E4-42EB-93AD-9835F75A9973}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar Date" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Datediff()" sheetId="4" r:id="rId4"/>
     <sheet name="Calculate()" sheetId="5" r:id="rId5"/>
     <sheet name="Relation of BI DAX" sheetId="6" r:id="rId6"/>
+    <sheet name="Edit Interaction" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>https://debug.to/899/calendarauto-function-can-not-find-a-base-column-of-datetime-type-in-the-model</t>
   </si>
@@ -2129,13 +2131,22 @@
   </si>
   <si>
     <t>https://learn.microsoft.com/en-us/power-bi/transform-model/desktop-create-and-manage-relationships</t>
+  </si>
+  <si>
+    <t>How to Edit Interactions Between Visuals in Power Bi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ENuG2F-tce0</t>
+  </si>
+  <si>
+    <t>In this video we will cover how to edit interactions between visuals in Power BI. We will cover how to cross highlight and how to filter visuals based on selections made in other visuals.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2192,6 +2203,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF131313"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2381,7 +2398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2444,6 +2461,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2613,16 +2631,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>607314</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>84588</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>254889</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>56013</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2645,8 +2663,145 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="704850"/>
+          <a:off x="9401175" y="295275"/>
           <a:ext cx="18285714" cy="9095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456076</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>189819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9378230-C9E9-DE67-F723-0EAB86D0EE8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="647700"/>
+          <a:ext cx="8990476" cy="5447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>255547</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>122889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18782CAF-63F7-7D7E-FCCA-4DF2D2C537AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="257175"/>
+          <a:ext cx="13019047" cy="7485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>455475</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>189288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682B16E9-4220-B487-C38D-C7580BC4E3D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="2305050"/>
+          <a:ext cx="13800000" cy="9695238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2958,7 +3113,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4226C-7EF8-493E-A17B-893528C5BC34}">
   <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,8 +3311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCEA66B-EE88-40D3-8C3B-2968A700D0A6}">
   <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3379,7 +3534,7 @@
   <dimension ref="B1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3390,7 +3545,7 @@
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="29" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3405,8 +3560,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{52D8A49B-B46E-4A79-A9AA-32DB1BAE58E5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3415,7 +3573,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3444,8 +3602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33DE77A-D502-468D-8D63-A6D26CB3AF1A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,4 +3622,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F632628-7974-4F7D-A9AA-B6EEDB405C37}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2172347E-957E-473A-A572-DC1F11BB6C8F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>